--- a/Modélisation/3.Dictionnaire de données/البطولة.xlsx
+++ b/Modélisation/3.Dictionnaire de données/البطولة.xlsx
@@ -709,7 +709,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
